--- a/Assets/Data/Origin/map.xlsx
+++ b/Assets/Data/Origin/map.xlsx
@@ -44,7 +44,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>pass: 0=NA, 1=可通过, 2=不可通过, 4=↑单向通过, 5=→单向通过, 6=↓单向通过, 7=←单向通过, 8=冰(可通过且强制触发一次行走且速度临时变为150%), 9=水(需载具或对应状态可通过)</t>
+    <t>pass: 0=NA, 1=可通过, 2=不可通过, 4=↑单向通过, 5=→单向通过, 6=↓单向通过, 7=←单向通过, 8=冰(可通过且强制触发一次行走且速度临时变为150%), -1=水..(需对应状态可通过)</t>
   </si>
   <si>
     <t>0会被视为可通过，因为不检查，但不建议这么用，因为通常0是给底板用的</t>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
